--- a/zDocs/画面構成.xlsx
+++ b/zDocs/画面構成.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="-240" windowWidth="23205" windowHeight="8415"/>
+    <workbookView xWindow="555" yWindow="-240" windowWidth="20730" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet name="画面構成" sheetId="3" r:id="rId1"/>
+    <sheet name="画面構成" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -88,8 +88,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CC33"/>
       <color rgb="FF66FF66"/>
-      <color rgb="FF33CC33"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
@@ -106,430 +106,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="476250" y="466725"/>
-          <a:ext cx="5715000" cy="400049"/>
-          <a:chOff x="476250" y="466725"/>
-          <a:chExt cx="5715000" cy="400049"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="476250" y="514350"/>
-            <a:ext cx="5715000" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:gradFill flip="none" rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                  <a:shade val="30000"/>
-                  <a:satMod val="115000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                  <a:shade val="67500"/>
-                  <a:satMod val="115000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                  <a:shade val="100000"/>
-                  <a:satMod val="115000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="13500000" scaled="1"/>
-            <a:tileRect/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="24" name="グループ化 23"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="581026" y="466725"/>
-            <a:ext cx="314234" cy="400049"/>
-            <a:chOff x="7629525" y="1847849"/>
-            <a:chExt cx="695325" cy="990600"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="20" name="グループ化 19"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="7629525" y="1847849"/>
-              <a:ext cx="695325" cy="971549"/>
-              <a:chOff x="4524375" y="2314574"/>
-              <a:chExt cx="695325" cy="1009650"/>
-            </a:xfrm>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="33CC33">
-                    <a:shade val="30000"/>
-                    <a:satMod val="115000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="33CC33">
-                    <a:shade val="67500"/>
-                    <a:satMod val="115000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="33CC33">
-                    <a:shade val="100000"/>
-                    <a:satMod val="115000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect t="100000" r="100000"/>
-              </a:path>
-              <a:tileRect l="-100000" b="-100000"/>
-            </a:gradFill>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="18" name="月 17"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="2345736">
-                <a:off x="4552949" y="2314574"/>
-                <a:ext cx="333375" cy="1009650"/>
-              </a:xfrm>
-              <a:prstGeom prst="moon">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:grpFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="小波 18"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4524375" y="2724151"/>
-                <a:ext cx="695325" cy="400050"/>
-              </a:xfrm>
-              <a:prstGeom prst="doubleWave">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val 12500"/>
-                  <a:gd name="adj2" fmla="val -10000"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:grpFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="21" name="グループ化 20"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="7667625" y="1876425"/>
-              <a:ext cx="647699" cy="962024"/>
-              <a:chOff x="4524375" y="2314574"/>
-              <a:chExt cx="695325" cy="1009650"/>
-            </a:xfrm>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="66FF66">
-                    <a:shade val="30000"/>
-                    <a:satMod val="115000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="66FF66">
-                    <a:shade val="67500"/>
-                    <a:satMod val="115000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="66FF66">
-                    <a:shade val="100000"/>
-                    <a:satMod val="115000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect t="100000" r="100000"/>
-              </a:path>
-              <a:tileRect l="-100000" b="-100000"/>
-            </a:gradFill>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="月 21"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="2345736">
-                <a:off x="4552949" y="2314574"/>
-                <a:ext cx="333375" cy="1009650"/>
-              </a:xfrm>
-              <a:prstGeom prst="moon">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:grpFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="小波 22"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4524375" y="2724151"/>
-                <a:ext cx="695325" cy="400050"/>
-              </a:xfrm>
-              <a:prstGeom prst="doubleWave">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val 12500"/>
-                  <a:gd name="adj2" fmla="val -10000"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:grpFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="857250"/>
-          <a:ext cx="5715000" cy="47625"/>
+          <a:off x="241300" y="514350"/>
+          <a:ext cx="6273800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-                <a:shade val="30000"/>
-                <a:satMod val="115000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-                <a:shade val="67500"/>
-                <a:satMod val="115000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="115000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="13500000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:pattFill prst="lgCheck">
+          <a:fgClr>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -565,18 +175,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -629,50 +239,111 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>170316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="513216"/>
+          <a:ext cx="5791200" cy="334737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>25402</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="476250" y="904875"/>
-          <a:ext cx="952500" cy="2400300"/>
-          <a:chOff x="476250" y="733425"/>
-          <a:chExt cx="952500" cy="2400300"/>
+          <a:off x="457200" y="514350"/>
+          <a:ext cx="1016002" cy="2743200"/>
+          <a:chOff x="451184" y="390525"/>
+          <a:chExt cx="1002632" cy="2743200"/>
         </a:xfrm>
+        <a:effectLst/>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="476250" y="733425"/>
-            <a:ext cx="952500" cy="2400300"/>
+            <a:off x="476250" y="390525"/>
+            <a:ext cx="952500" cy="2743200"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="25000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:ln>
+          <a:ln w="9525">
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -701,29 +372,28 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="476250" y="904875"/>
-            <a:ext cx="952500" cy="171450"/>
+            <a:off x="451184" y="892175"/>
+            <a:ext cx="1002632" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1">
+            <a:schemeClr val="tx1">
               <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+              <a:alpha val="50000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
@@ -747,7 +417,7 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -760,29 +430,28 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="476250" y="1076325"/>
-            <a:ext cx="952500" cy="171450"/>
+            <a:off x="451184" y="1076325"/>
+            <a:ext cx="1002632" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1">
+            <a:schemeClr val="tx1">
               <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+              <a:alpha val="50000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
@@ -806,7 +475,7 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -819,29 +488,28 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="476250" y="1247775"/>
-            <a:ext cx="952500" cy="171450"/>
+            <a:off x="451184" y="1260475"/>
+            <a:ext cx="1002632" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1">
+            <a:schemeClr val="tx1">
               <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+              <a:alpha val="50000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
@@ -865,7 +533,7 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -883,23 +551,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="3133725"/>
+          <a:off x="476250" y="3305175"/>
           <a:ext cx="5715000" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -941,22 +609,537 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1454150" y="600075"/>
+          <a:ext cx="4724400" cy="219075"/>
+          <a:chOff x="1454150" y="600075"/>
+          <a:chExt cx="4724400" cy="219075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5464174" y="600075"/>
+            <a:ext cx="714376" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="50">
+                <a:ln w="13500">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="2500"/>
+                      <a:alpha val="6500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                    <a:alpha val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="50900" dist="38500" dir="13500000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="60000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ログアウト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4019550" y="600075"/>
+            <a:ext cx="714376" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="50">
+                <a:ln w="13500">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="2500"/>
+                      <a:alpha val="6500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                    <a:alpha val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="50900" dist="38500" dir="13500000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="60000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作業設定</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3295650" y="600075"/>
+            <a:ext cx="714376" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="50">
+                <a:ln w="13500">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="2500"/>
+                      <a:alpha val="6500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                    <a:alpha val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="50900" dist="38500" dir="13500000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="60000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>マスタ管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4740274" y="600075"/>
+            <a:ext cx="714376" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="50">
+                <a:ln w="13500">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="2500"/>
+                      <a:alpha val="6500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                    <a:alpha val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:innerShdw blurRad="50900" dist="38500" dir="13500000">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="60000"/>
+                    </a:srgbClr>
+                  </a:innerShdw>
+                </a:effectLst>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作業管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1454150" y="614362"/>
+            <a:ext cx="1171576" cy="190501"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>&lt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ユーザー名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>&gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>さん</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4019550" y="623887"/>
+            <a:ext cx="0" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4749800" y="623887"/>
+            <a:ext cx="0" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5473700" y="623887"/>
+            <a:ext cx="0" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="171450"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476251" y="3133726"/>
+          <a:off x="476251" y="3305176"/>
           <a:ext cx="5715000" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,339 +1225,378 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714376" cy="219075"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5476874" y="581025"/>
-          <a:ext cx="714376" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714376" cy="219075"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4048125" y="581025"/>
-          <a:ext cx="714376" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>作業設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714376" cy="219075"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3333750" y="581024"/>
-          <a:ext cx="714376" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>マスタ管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="714376" cy="219075"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4762499" y="581024"/>
-          <a:ext cx="714376" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>作業管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1171576" cy="190501"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95535</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42310</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="グループ化 52"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="942975" y="600075"/>
-          <a:ext cx="1171576" cy="190501"/>
+          <a:off x="749300" y="488951"/>
+          <a:ext cx="552735" cy="410609"/>
+          <a:chOff x="552450" y="501651"/>
+          <a:chExt cx="552735" cy="410609"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="グループ化 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="552450" y="501651"/>
+            <a:ext cx="269344" cy="342900"/>
+            <a:chOff x="7629525" y="1847849"/>
+            <a:chExt cx="695325" cy="990600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="36" name="グループ化 35"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7629525" y="1847849"/>
+              <a:ext cx="695325" cy="971549"/>
+              <a:chOff x="4524375" y="2314574"/>
+              <a:chExt cx="695325" cy="1009650"/>
+            </a:xfrm>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="33CC33">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="33CC33">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="33CC33">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect t="100000" r="100000"/>
+              </a:path>
+              <a:tileRect l="-100000" b="-100000"/>
+            </a:gradFill>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="月 39"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2345736">
+                <a:off x="4552949" y="2314574"/>
+                <a:ext cx="333375" cy="1009650"/>
+              </a:xfrm>
+              <a:prstGeom prst="moon">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="小波 40"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4524375" y="2724151"/>
+                <a:ext cx="695325" cy="400050"/>
+              </a:xfrm>
+              <a:prstGeom prst="doubleWave">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 12500"/>
+                  <a:gd name="adj2" fmla="val -10000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:grpFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="37" name="グループ化 36"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7667625" y="1876425"/>
+              <a:ext cx="647699" cy="962024"/>
+              <a:chOff x="4524375" y="2314574"/>
+              <a:chExt cx="695325" cy="1009650"/>
+            </a:xfrm>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="66FF66">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="66FF66">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="66FF66">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect t="100000" r="100000"/>
+              </a:path>
+              <a:tileRect l="-100000" b="-100000"/>
+            </a:gradFill>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="38" name="月 37"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2345736">
+                <a:off x="4552949" y="2314574"/>
+                <a:ext cx="333375" cy="1009650"/>
+              </a:xfrm>
+              <a:prstGeom prst="moon">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="小波 38"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4524375" y="2724151"/>
+                <a:ext cx="695325" cy="400050"/>
+              </a:xfrm>
+              <a:prstGeom prst="doubleWave">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val 12500"/>
+                  <a:gd name="adj2" fmla="val -10000"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:grpFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="647700"/>
+            <a:ext cx="495585" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" cap="all" spc="0">
+                <a:ln w="9000" cmpd="sng">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:reflection blurRad="12700" stA="28000" endPos="45000" dist="1000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+                </a:effectLst>
+                <a:latin typeface="Rage Italic LET" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>FWM</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="all" spc="0">
+              <a:ln w="9000" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザー名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>さん</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+              <a:effectLst>
+                <a:reflection blurRad="12700" stA="28000" endPos="45000" dist="1000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Rage Italic LET" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1665,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1683,7 +1905,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
